--- a/main_data/products_list.xlsx
+++ b/main_data/products_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aktiz\PycharmProjects\КЗ\inteface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aktiz\PycharmProjects\КЗ\main_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0FC39-5BD1-4988-B923-1119FFDBAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481E810-03DF-4F08-A0A0-BDE0B791E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8806CB1C-CA7B-421A-99DB-310831829B7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Хліб</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гречка </t>
+  </si>
+  <si>
+    <t>Кавун</t>
+  </si>
+  <si>
+    <t>Масло</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99B082D-15E4-4956-8321-71F759E34922}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,56 +446,57 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>25</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>44</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>46</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>30</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>150</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>70</v>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
